--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.63660679061715</v>
+        <v>91.3872472818542</v>
       </c>
       <c r="D2" t="n">
-        <v>14.73990312040517</v>
+        <v>14.05109264275461</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.14973958141125</v>
+        <v>93.93395516631809</v>
       </c>
       <c r="D3" t="n">
-        <v>15.29014904151979</v>
+        <v>15.40470904605156</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.2158250607672</v>
+        <v>89.04541736680974</v>
       </c>
       <c r="D4" t="n">
-        <v>15.68471228888941</v>
+        <v>14.0273222874263</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.92552839698321</v>
+        <v>88.49208682759321</v>
       </c>
       <c r="D5" t="n">
-        <v>15.92972385434161</v>
+        <v>15.48373042165503</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.06393624554202</v>
+        <v>90.71853118428457</v>
       </c>
       <c r="D6" t="n">
-        <v>16.35099921235425</v>
+        <v>14.64620025972558</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.78081113846436</v>
+        <v>88.05806187387479</v>
       </c>
       <c r="D7" t="n">
-        <v>15.79320627217357</v>
+        <v>14.66077478561045</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.13152219767058</v>
+        <v>85.27614956788889</v>
       </c>
       <c r="D8" t="n">
-        <v>13.94823913961113</v>
+        <v>14.56514818785866</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.11813442970224</v>
+        <v>88.79330336376626</v>
       </c>
       <c r="D9" t="n">
-        <v>14.70316089849329</v>
+        <v>15.65690759099571</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.46491534869185</v>
+        <v>83.31120266633012</v>
       </c>
       <c r="D10" t="n">
-        <v>15.25771315350081</v>
+        <v>12.91204645684724</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.05614519908943</v>
+        <v>83.80118632811732</v>
       </c>
       <c r="D11" t="n">
-        <v>13.53199406039651</v>
+        <v>14.84515826972389</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.50701181224946</v>
+        <v>81.8201753374975</v>
       </c>
       <c r="D12" t="n">
-        <v>15.87846381617544</v>
+        <v>16.20319408191232</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.13504306867721</v>
+        <v>79.48797485881985</v>
       </c>
       <c r="D13" t="n">
-        <v>15.9664715021111</v>
+        <v>16.52568269932378</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.32364644830807</v>
+        <v>78.92100362634903</v>
       </c>
       <c r="D14" t="n">
-        <v>16.13954956541502</v>
+        <v>14.57171664687789</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.18307921849156</v>
+        <v>79.09369896651202</v>
       </c>
       <c r="D15" t="n">
-        <v>18.31955529012297</v>
+        <v>11.73823189451445</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.16679682884555</v>
+        <v>76.38546396818288</v>
       </c>
       <c r="D16" t="n">
-        <v>16.22308413225937</v>
+        <v>11.97490883486408</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.02194715888375</v>
+        <v>78.08199367114351</v>
       </c>
       <c r="D17" t="n">
-        <v>16.10845234591833</v>
+        <v>14.05491347226558</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.36114864313353</v>
+        <v>76.6977166964711</v>
       </c>
       <c r="D18" t="n">
-        <v>16.39661332387396</v>
+        <v>14.94479835346013</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.82659585934394</v>
+        <v>77.07980356049457</v>
       </c>
       <c r="D19" t="n">
-        <v>13.26016552139056</v>
+        <v>13.93476879168423</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.78827445995161</v>
+        <v>72.80061707063157</v>
       </c>
       <c r="D20" t="n">
-        <v>12.75640844398966</v>
+        <v>14.81790914752201</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.43342129967651</v>
+        <v>72.29678767137061</v>
       </c>
       <c r="D21" t="n">
-        <v>13.77199956129661</v>
+        <v>14.87192475421312</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.49537007703658</v>
+        <v>70.47252786810213</v>
       </c>
       <c r="D22" t="n">
-        <v>16.95826871996807</v>
+        <v>13.85407770057042</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.93024219317708</v>
+        <v>72.28997862476346</v>
       </c>
       <c r="D23" t="n">
-        <v>15.63588531199833</v>
+        <v>14.48029563623215</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.29011158611971</v>
+        <v>68.58215173701123</v>
       </c>
       <c r="D24" t="n">
-        <v>14.39801992802064</v>
+        <v>14.26996828857492</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>72.10896733590067</v>
+        <v>70.12226123260228</v>
       </c>
       <c r="D25" t="n">
-        <v>14.71902955092031</v>
+        <v>13.85815695857172</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>68.80293626583793</v>
+        <v>66.92419660884087</v>
       </c>
       <c r="D26" t="n">
-        <v>14.08980122192873</v>
+        <v>13.99939911002113</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.81296713323769</v>
+        <v>66.26636243191405</v>
       </c>
       <c r="D27" t="n">
-        <v>14.61576646923132</v>
+        <v>15.49995411967758</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.96487719954115</v>
+        <v>64.23751295632358</v>
       </c>
       <c r="D28" t="n">
-        <v>16.33072148452804</v>
+        <v>14.47781160847693</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.16622196468743</v>
+        <v>62.74846489157876</v>
       </c>
       <c r="D29" t="n">
-        <v>14.9195613056132</v>
+        <v>14.83686980612497</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.98028251959223</v>
+        <v>62.8376482203917</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1994382182714</v>
+        <v>12.60831008426497</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.923043878417</v>
+        <v>61.57208110935543</v>
       </c>
       <c r="D31" t="n">
-        <v>14.39325547728718</v>
+        <v>16.08938960579382</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.82589410716592</v>
+        <v>60.14844269166603</v>
       </c>
       <c r="D32" t="n">
-        <v>14.44443969776101</v>
+        <v>15.83922427588418</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.65096741528463</v>
+        <v>61.24456668547232</v>
       </c>
       <c r="D33" t="n">
-        <v>15.0583941227765</v>
+        <v>16.95012117754241</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.7357554331028</v>
+        <v>58.10684492687596</v>
       </c>
       <c r="D34" t="n">
-        <v>13.76078280113957</v>
+        <v>13.95249557434907</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.33742326076027</v>
+        <v>59.10613251339289</v>
       </c>
       <c r="D35" t="n">
-        <v>13.38299290205961</v>
+        <v>14.79080195852387</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.73738983615742</v>
+        <v>59.86168468192008</v>
       </c>
       <c r="D36" t="n">
-        <v>15.92635587502335</v>
+        <v>14.02261809379283</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.33787494579721</v>
+        <v>55.15416325363137</v>
       </c>
       <c r="D37" t="n">
-        <v>14.37874931972658</v>
+        <v>14.55356813071975</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.5685083129452</v>
+        <v>53.52338801288029</v>
       </c>
       <c r="D38" t="n">
-        <v>14.51096125591981</v>
+        <v>13.1934697477462</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.83921273009021</v>
+        <v>52.25729827362638</v>
       </c>
       <c r="D39" t="n">
-        <v>14.57628117857237</v>
+        <v>14.66401161287092</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.45628105681405</v>
+        <v>52.6035843897282</v>
       </c>
       <c r="D40" t="n">
-        <v>15.19541145053807</v>
+        <v>15.3336841255211</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.85394404366912</v>
+        <v>51.5370730606497</v>
       </c>
       <c r="D41" t="n">
-        <v>12.8901318039788</v>
+        <v>14.02002513152721</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.98020329157473</v>
+        <v>49.92141911785907</v>
       </c>
       <c r="D42" t="n">
-        <v>14.37635363276238</v>
+        <v>14.40081259844771</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.77294452062129</v>
+        <v>51.41699890895192</v>
       </c>
       <c r="D43" t="n">
-        <v>13.61026689873518</v>
+        <v>14.71090623892971</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.71181692973522</v>
+        <v>47.84261918903625</v>
       </c>
       <c r="D44" t="n">
-        <v>15.49035113671339</v>
+        <v>14.60763387306897</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.79118277120531</v>
+        <v>48.84873766238077</v>
       </c>
       <c r="D45" t="n">
-        <v>14.11828056459432</v>
+        <v>14.29739973807926</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.93196971800651</v>
+        <v>45.93970793979758</v>
       </c>
       <c r="D46" t="n">
-        <v>14.70532234357548</v>
+        <v>14.68082372867682</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.78119237518072</v>
+        <v>45.21013562374261</v>
       </c>
       <c r="D47" t="n">
-        <v>15.02122943839535</v>
+        <v>16.27273086995249</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.73673959477743</v>
+        <v>43.66576201951694</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5580114550833</v>
+        <v>13.19741905953452</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.78559610209364</v>
+        <v>45.18185990726411</v>
       </c>
       <c r="D49" t="n">
-        <v>14.56622085845143</v>
+        <v>14.13823811142905</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.84175735789491</v>
+        <v>41.6659124138082</v>
       </c>
       <c r="D50" t="n">
-        <v>15.48716583235138</v>
+        <v>14.51629561274621</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.22112154454729</v>
+        <v>40.87211067786502</v>
       </c>
       <c r="D51" t="n">
-        <v>14.64789679238727</v>
+        <v>15.00559156407096</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.8124440346946</v>
+        <v>39.96140541371554</v>
       </c>
       <c r="D52" t="n">
-        <v>16.56907757773208</v>
+        <v>14.43599002724536</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.81963644716933</v>
+        <v>36.52959764859909</v>
       </c>
       <c r="D53" t="n">
-        <v>16.10048386887771</v>
+        <v>12.89433528648095</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.79302933070208</v>
+        <v>37.77119912596168</v>
       </c>
       <c r="D54" t="n">
-        <v>15.16835120699904</v>
+        <v>16.44273087832234</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.57554237572767</v>
+        <v>39.93998599252494</v>
       </c>
       <c r="D55" t="n">
-        <v>13.19036843322864</v>
+        <v>13.1968512028049</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.23490520158129</v>
+        <v>34.6858450265742</v>
       </c>
       <c r="D56" t="n">
-        <v>16.18166338968634</v>
+        <v>13.92980368517026</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.15372011587682</v>
+        <v>37.48468863353471</v>
       </c>
       <c r="D57" t="n">
-        <v>16.40446764860333</v>
+        <v>14.91562316151147</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.10011982670477</v>
+        <v>34.19988493510872</v>
       </c>
       <c r="D58" t="n">
-        <v>15.46303824435527</v>
+        <v>14.49468240287923</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.59807458391834</v>
+        <v>33.74753723422688</v>
       </c>
       <c r="D59" t="n">
-        <v>13.45929270382086</v>
+        <v>11.78420093080198</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.87566518208619</v>
+        <v>32.83595567940316</v>
       </c>
       <c r="D60" t="n">
-        <v>13.69618839897906</v>
+        <v>14.15423506078338</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71367025967903</v>
+        <v>28.12869400876617</v>
       </c>
       <c r="D61" t="n">
-        <v>14.0384798823999</v>
+        <v>14.36489911915332</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.90713163108764</v>
+        <v>28.94298512894409</v>
       </c>
       <c r="D62" t="n">
-        <v>15.28914282034627</v>
+        <v>14.61349716105917</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>31.55946735837223</v>
+        <v>28.98748648705343</v>
       </c>
       <c r="D63" t="n">
-        <v>16.83629680314402</v>
+        <v>14.32065877891112</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.71522147948115</v>
+        <v>26.54960576422041</v>
       </c>
       <c r="D64" t="n">
-        <v>14.33582560867935</v>
+        <v>13.81794670241785</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.40264174015567</v>
+        <v>26.62531596642657</v>
       </c>
       <c r="D65" t="n">
-        <v>14.68877395054277</v>
+        <v>14.0108563589489</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.46799539185768</v>
+        <v>25.72741871843857</v>
       </c>
       <c r="D66" t="n">
-        <v>15.27556302961861</v>
+        <v>15.30936873290845</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.89527279741712</v>
+        <v>23.99323456223799</v>
       </c>
       <c r="D67" t="n">
-        <v>14.33511607835814</v>
+        <v>15.78500103428134</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.94954919687244</v>
+        <v>23.96785663525257</v>
       </c>
       <c r="D68" t="n">
-        <v>14.1026458615758</v>
+        <v>14.22583985591988</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.30582365640289</v>
+        <v>25.93857480431926</v>
       </c>
       <c r="D69" t="n">
-        <v>14.54781780507744</v>
+        <v>15.10370225100513</v>
       </c>
     </row>
   </sheetData>
